--- a/ROCKMAN2/タスク.xlsx
+++ b/ROCKMAN2/タスク.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fko2347058\Desktop\ueda\GitHub\MyGame\ROCKMAN2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FC73B4C-5121-4BDB-9E14-43844AF4FD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA346DA2-1747-47BC-92B8-12A8C67B3CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9330" yWindow="330" windowWidth="19530" windowHeight="12480" xr2:uid="{248F244D-F5B2-4AEB-B742-F88219B97619}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{248F244D-F5B2-4AEB-B742-F88219B97619}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>未or済</t>
     <rPh sb="0" eb="1">
@@ -325,12 +326,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>解析時間</t>
-    <rPh sb="0" eb="2">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジカン</t>
+    <t>α</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ制作</t>
+    <rPh sb="4" eb="6">
+      <t>セイサク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -739,26 +745,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2DEF67-B3C3-4ABC-8BF5-16DF4181320C}">
-  <dimension ref="B1:E56"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="19.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
@@ -772,15 +776,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -788,7 +792,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -800,7 +804,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -812,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -824,7 +828,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>8</v>
@@ -836,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>26</v>
@@ -848,7 +852,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
@@ -862,7 +866,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -874,7 +878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>12</v>
@@ -886,7 +890,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -898,7 +902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>7</v>
@@ -910,7 +914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
         <v>16</v>
@@ -922,7 +926,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
@@ -1230,7 +1234,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>40</v>
@@ -1238,7 +1242,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B50" s="5" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1252,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B51" s="2"/>
       <c r="C51" s="3" t="s">
         <v>23</v>
@@ -1256,7 +1260,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B52" s="2"/>
       <c r="C52" s="3" t="s">
         <v>22</v>
@@ -1264,7 +1268,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B53" s="2" t="s">
         <v>34</v>
       </c>
@@ -1274,7 +1278,7 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B54" s="2"/>
       <c r="C54" s="3" t="s">
         <v>41</v>
@@ -1282,23 +1286,50 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B56" s="2" t="s">
-        <v>43</v>
-      </c>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C2985F2-8621-47D3-B7FE-F288CB511084}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>